--- a/Excel/t_ViewConfig.xlsx
+++ b/Excel/t_ViewConfig.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>越大越靠前</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -53,24 +50,6 @@
   </si>
   <si>
     <t>登陆界面</t>
-  </si>
-  <si>
-    <t>Assets/ResHotfix/MainBundle/UI/MainUI/MainUI.prefab</t>
-  </si>
-  <si>
-    <t>主界面</t>
-  </si>
-  <si>
-    <t>Assets/ResHotfix/MainBundle/UI/SpecialEffectsUI/SpecialEffectsUI.prefab</t>
-  </si>
-  <si>
-    <t>特效界面</t>
-  </si>
-  <si>
-    <t>Assets/ResHotfix/MainBundle/UI/BigMapUI/BigMapUI.prefab</t>
-  </si>
-  <si>
-    <t>大地图</t>
   </si>
 </sst>
 </file>
@@ -1032,38 +1011,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H12"/>
+  <dimension ref="A4:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34.7083333333333" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
+    <col min="3" max="3" width="14.7833333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="28.3" spans="3:3">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" ht="28.3" spans="1:8">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
@@ -1072,16 +1047,16 @@
     </row>
     <row r="5" ht="14.15" spans="1:8">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1090,13 +1065,13 @@
     </row>
     <row r="6" ht="14.15" spans="1:8">
       <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1109,61 +1084,32 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>11</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="28.3" spans="1:7">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="14.15" spans="1:7">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" spans="2:7">
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="14.15" spans="1:7">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="10" spans="2:7">
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="7:7">

--- a/Excel/t_ViewConfig.xlsx
+++ b/Excel/t_ViewConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -46,10 +46,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>Assets/ResHotfix/MainBundle/UI/LoginUI/LoginUI.prefab</t>
-  </si>
-  <si>
-    <t>登陆界面</t>
+    <t>Assets/ResHotfix/MainBundle/UI/MainUI/MainUI.prefab</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>Assets/ResHotfix/MainBundle/UI/AdRegainUI/AdRegainUI.prefab</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,9 +691,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,7 +1014,7 @@
   <dimension ref="A4:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
@@ -1027,7 +1027,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="28.3" spans="1:8">
+    <row r="4" ht="14.15" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1094,22 +1094,27 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" ht="14.15" spans="1:7">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="7:7">
